--- a/Code/Results/Cases/Case_1_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003747815344949</v>
+        <v>1.029899180750632</v>
       </c>
       <c r="D2">
-        <v>1.033454444999893</v>
+        <v>1.035170097181239</v>
       </c>
       <c r="E2">
-        <v>1.018182353629594</v>
+        <v>1.039133933876635</v>
       </c>
       <c r="F2">
-        <v>1.02557090033064</v>
+        <v>1.04881679467445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050711981856086</v>
+        <v>1.037941592842828</v>
       </c>
       <c r="J2">
-        <v>1.025817004835593</v>
+        <v>1.035043404736897</v>
       </c>
       <c r="K2">
-        <v>1.04446658008793</v>
+        <v>1.037967470451768</v>
       </c>
       <c r="L2">
-        <v>1.02939406030839</v>
+        <v>1.041919986588995</v>
       </c>
       <c r="M2">
-        <v>1.036685125631688</v>
+        <v>1.051575583816734</v>
       </c>
       <c r="N2">
-        <v>1.012530241650758</v>
+        <v>1.015685007260422</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007588949129282</v>
+        <v>1.03071605375388</v>
       </c>
       <c r="D3">
-        <v>1.035709870434925</v>
+        <v>1.035642765531242</v>
       </c>
       <c r="E3">
-        <v>1.021398422518641</v>
+        <v>1.039870692091212</v>
       </c>
       <c r="F3">
-        <v>1.02923776811594</v>
+        <v>1.049661549215666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051777783248158</v>
+        <v>1.038105440698532</v>
       </c>
       <c r="J3">
-        <v>1.027874848153512</v>
+        <v>1.035502182042361</v>
       </c>
       <c r="K3">
-        <v>1.045905349159841</v>
+        <v>1.038250374178817</v>
       </c>
       <c r="L3">
-        <v>1.031764636163132</v>
+        <v>1.042467094668118</v>
       </c>
       <c r="M3">
-        <v>1.03950972968799</v>
+        <v>1.052232375384859</v>
       </c>
       <c r="N3">
-        <v>1.013218316774524</v>
+        <v>1.015837681183171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010028842180825</v>
+        <v>1.031245202407314</v>
       </c>
       <c r="D4">
-        <v>1.037143765744991</v>
+        <v>1.03594872305099</v>
       </c>
       <c r="E4">
-        <v>1.023446946366397</v>
+        <v>1.040348337013234</v>
       </c>
       <c r="F4">
-        <v>1.031572838707081</v>
+        <v>1.050209191501308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052444297883141</v>
+        <v>1.038210255010776</v>
       </c>
       <c r="J4">
-        <v>1.029179442262485</v>
+        <v>1.035798955398388</v>
       </c>
       <c r="K4">
-        <v>1.046813650188535</v>
+        <v>1.038432817429971</v>
       </c>
       <c r="L4">
-        <v>1.033270389485469</v>
+        <v>1.042821354721283</v>
       </c>
       <c r="M4">
-        <v>1.041304574725747</v>
+        <v>1.052657745837523</v>
       </c>
       <c r="N4">
-        <v>1.013654453316244</v>
+        <v>1.015936415760608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011043992316797</v>
+        <v>1.031467792995269</v>
       </c>
       <c r="D5">
-        <v>1.037740589615525</v>
+        <v>1.036077371878461</v>
       </c>
       <c r="E5">
-        <v>1.024300591641135</v>
+        <v>1.04054935565645</v>
       </c>
       <c r="F5">
-        <v>1.032545756681325</v>
+        <v>1.050439664799052</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052719050573881</v>
+        <v>1.038254029283011</v>
       </c>
       <c r="J5">
-        <v>1.029721597457591</v>
+        <v>1.035923696993636</v>
       </c>
       <c r="K5">
-        <v>1.047190164773986</v>
+        <v>1.038509368190206</v>
       </c>
       <c r="L5">
-        <v>1.033896840126508</v>
+        <v>1.042970342723245</v>
       </c>
       <c r="M5">
-        <v>1.042051468560154</v>
+        <v>1.052836661415446</v>
       </c>
       <c r="N5">
-        <v>1.013835679932652</v>
+        <v>1.015977909991341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011213829367955</v>
+        <v>1.031505174889467</v>
       </c>
       <c r="D6">
-        <v>1.037840451444634</v>
+        <v>1.036098973950678</v>
       </c>
       <c r="E6">
-        <v>1.024443485791831</v>
+        <v>1.040583120224976</v>
       </c>
       <c r="F6">
-        <v>1.032708608543343</v>
+        <v>1.050478376557894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052764865631966</v>
+        <v>1.038261362163791</v>
       </c>
       <c r="J6">
-        <v>1.029812263017893</v>
+        <v>1.035944640333582</v>
       </c>
       <c r="K6">
-        <v>1.047253073036575</v>
+        <v>1.038522212660613</v>
       </c>
       <c r="L6">
-        <v>1.034001643755825</v>
+        <v>1.042995361768583</v>
       </c>
       <c r="M6">
-        <v>1.042176432092657</v>
+        <v>1.052866707346886</v>
       </c>
       <c r="N6">
-        <v>1.013865985526343</v>
+        <v>1.015984876233466</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010042447814212</v>
+        <v>1.031248176139428</v>
       </c>
       <c r="D7">
-        <v>1.037151763894398</v>
+        <v>1.035950441969927</v>
       </c>
       <c r="E7">
-        <v>1.023458382208666</v>
+        <v>1.040351022184991</v>
       </c>
       <c r="F7">
-        <v>1.031585872905276</v>
+        <v>1.050212270138675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052447990443485</v>
+        <v>1.03821084106405</v>
       </c>
       <c r="J7">
-        <v>1.029186711098645</v>
+        <v>1.035800622289438</v>
       </c>
       <c r="K7">
-        <v>1.046818702035783</v>
+        <v>1.038433840889656</v>
       </c>
       <c r="L7">
-        <v>1.033278785729858</v>
+        <v>1.042823345283834</v>
       </c>
       <c r="M7">
-        <v>1.04131458458184</v>
+        <v>1.052660136165365</v>
       </c>
       <c r="N7">
-        <v>1.013656883158254</v>
+        <v>1.015936970263297</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005055585073399</v>
+        <v>1.030175126278562</v>
       </c>
       <c r="D8">
-        <v>1.034222035310853</v>
+        <v>1.035329813836348</v>
       </c>
       <c r="E8">
-        <v>1.019276103439481</v>
+        <v>1.039382734574588</v>
       </c>
       <c r="F8">
-        <v>1.02681809163621</v>
+        <v>1.049102069030974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051077017528112</v>
+        <v>1.03799721520714</v>
       </c>
       <c r="J8">
-        <v>1.026518145110325</v>
+        <v>1.035198467763302</v>
       </c>
       <c r="K8">
-        <v>1.044957572622951</v>
+        <v>1.038063205521666</v>
       </c>
       <c r="L8">
-        <v>1.030201147778124</v>
+        <v>1.042104832809476</v>
       </c>
       <c r="M8">
-        <v>1.037646646453847</v>
+        <v>1.051797469400993</v>
       </c>
       <c r="N8">
-        <v>1.012764694849839</v>
+        <v>1.015736615375359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9959034539234112</v>
+        <v>1.028288770659261</v>
       </c>
       <c r="D9">
-        <v>1.028858293317061</v>
+        <v>1.034237111286104</v>
       </c>
       <c r="E9">
-        <v>1.011647075915889</v>
+        <v>1.03768356427295</v>
       </c>
       <c r="F9">
-        <v>1.018115940022357</v>
+        <v>1.047153727281261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048479911313553</v>
+        <v>1.037611580650261</v>
       </c>
       <c r="J9">
-        <v>1.021601705784831</v>
+        <v>1.034136790546875</v>
       </c>
       <c r="K9">
-        <v>1.041499894494947</v>
+        <v>1.03740545057805</v>
       </c>
       <c r="L9">
-        <v>1.024553972069787</v>
+        <v>1.0408406598107</v>
       </c>
       <c r="M9">
-        <v>1.030921780695999</v>
+        <v>1.050280344366199</v>
       </c>
       <c r="N9">
-        <v>1.011120445908163</v>
+        <v>1.015383158522442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9895339347994005</v>
+        <v>1.027034323168298</v>
       </c>
       <c r="D10">
-        <v>1.025138750567244</v>
+        <v>1.033509378643423</v>
       </c>
       <c r="E10">
-        <v>1.006371300236819</v>
+        <v>1.036555653709336</v>
       </c>
       <c r="F10">
-        <v>1.012094054639961</v>
+        <v>1.045860314231421</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046620535797468</v>
+        <v>1.037348359780937</v>
       </c>
       <c r="J10">
-        <v>1.018169042198743</v>
+        <v>1.033428675749359</v>
       </c>
       <c r="K10">
-        <v>1.039068481714111</v>
+        <v>1.036963899579962</v>
       </c>
       <c r="L10">
-        <v>1.020626463926332</v>
+        <v>1.039999268172545</v>
       </c>
       <c r="M10">
-        <v>1.026248327404121</v>
+        <v>1.049271049071549</v>
       </c>
       <c r="N10">
-        <v>1.00997219759952</v>
+        <v>1.015147275114556</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9867068008407492</v>
+        <v>1.026491895408498</v>
       </c>
       <c r="D11">
-        <v>1.023492059451482</v>
+        <v>1.033194461197344</v>
       </c>
       <c r="E11">
-        <v>1.004038165266321</v>
+        <v>1.036068434671992</v>
       </c>
       <c r="F11">
-        <v>1.00942988488331</v>
+        <v>1.045301577547074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045783597124072</v>
+        <v>1.037232939254775</v>
       </c>
       <c r="J11">
-        <v>1.016643243086812</v>
+        <v>1.033121991998951</v>
       </c>
       <c r="K11">
-        <v>1.037984143824702</v>
+        <v>1.036771996607531</v>
       </c>
       <c r="L11">
-        <v>1.018884327401205</v>
+        <v>1.039635284547152</v>
       </c>
       <c r="M11">
-        <v>1.024176131829869</v>
+        <v>1.048834537689519</v>
       </c>
       <c r="N11">
-        <v>1.009461779915596</v>
+        <v>1.015045082547776</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9856457998584288</v>
+        <v>1.026290528905962</v>
       </c>
       <c r="D12">
-        <v>1.022874799948015</v>
+        <v>1.033077518199142</v>
       </c>
       <c r="E12">
-        <v>1.003163888816339</v>
+        <v>1.035887638082301</v>
       </c>
       <c r="F12">
-        <v>1.008431389078933</v>
+        <v>1.045094238187076</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045467808244695</v>
+        <v>1.037189850855352</v>
       </c>
       <c r="J12">
-        <v>1.016070328742172</v>
+        <v>1.033008067466675</v>
       </c>
       <c r="K12">
-        <v>1.03757649590891</v>
+        <v>1.036700610175948</v>
       </c>
       <c r="L12">
-        <v>1.018230723704507</v>
+        <v>1.039500138070927</v>
       </c>
       <c r="M12">
-        <v>1.023398820256732</v>
+        <v>1.048672477804274</v>
       </c>
       <c r="N12">
-        <v>1.00927012394109</v>
+        <v>1.015007116106457</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9858738887193113</v>
+        <v>1.026333717458626</v>
       </c>
       <c r="D13">
-        <v>1.023007460858371</v>
+        <v>1.033102601418318</v>
       </c>
       <c r="E13">
-        <v>1.0033517756146</v>
+        <v>1.035926411467305</v>
       </c>
       <c r="F13">
-        <v>1.008645979321632</v>
+        <v>1.045138704085684</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045535770548357</v>
+        <v>1.037199103226935</v>
       </c>
       <c r="J13">
-        <v>1.016193503787424</v>
+        <v>1.033032505030994</v>
       </c>
       <c r="K13">
-        <v>1.0376641607953</v>
+        <v>1.036715927543783</v>
       </c>
       <c r="L13">
-        <v>1.018371222270625</v>
+        <v>1.039529125015315</v>
       </c>
       <c r="M13">
-        <v>1.023565905587658</v>
+        <v>1.048707236557346</v>
       </c>
       <c r="N13">
-        <v>1.009311329509688</v>
+        <v>1.015015260372184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9866193230486535</v>
+        <v>1.02647524802829</v>
       </c>
       <c r="D14">
-        <v>1.023441152009649</v>
+        <v>1.033184794001429</v>
       </c>
       <c r="E14">
-        <v>1.003966055263597</v>
+        <v>1.036053486322049</v>
       </c>
       <c r="F14">
-        <v>1.00934753290839</v>
+        <v>1.045284434712518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045757594925121</v>
+        <v>1.03722938195699</v>
       </c>
       <c r="J14">
-        <v>1.016596013002867</v>
+        <v>1.033112575128179</v>
       </c>
       <c r="K14">
-        <v>1.037950547843639</v>
+        <v>1.036766097919702</v>
       </c>
       <c r="L14">
-        <v>1.01883043441111</v>
+        <v>1.039624112202397</v>
       </c>
       <c r="M14">
-        <v>1.02411203602673</v>
+        <v>1.048821140129354</v>
       </c>
       <c r="N14">
-        <v>1.009445980148467</v>
+        <v>1.015041944381669</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9870771529793012</v>
+        <v>1.026562465015027</v>
       </c>
       <c r="D15">
-        <v>1.023707615142981</v>
+        <v>1.033235439779495</v>
       </c>
       <c r="E15">
-        <v>1.004343509809343</v>
+        <v>1.036131805011917</v>
       </c>
       <c r="F15">
-        <v>1.009778591164573</v>
+        <v>1.04537425076744</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045893613187354</v>
+        <v>1.037248009076249</v>
       </c>
       <c r="J15">
-        <v>1.016843187923016</v>
+        <v>1.03316190786563</v>
       </c>
       <c r="K15">
-        <v>1.038126349817621</v>
+        <v>1.036796995653639</v>
       </c>
       <c r="L15">
-        <v>1.019112501219854</v>
+        <v>1.039682644043848</v>
       </c>
       <c r="M15">
-        <v>1.024447507583742</v>
+        <v>1.048891330515731</v>
       </c>
       <c r="N15">
-        <v>1.009528666920023</v>
+        <v>1.015058384291148</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9897200649187432</v>
+        <v>1.027070338391006</v>
       </c>
       <c r="D16">
-        <v>1.025247260134005</v>
+        <v>1.03353028296703</v>
       </c>
       <c r="E16">
-        <v>1.006525089038964</v>
+        <v>1.036588013724436</v>
       </c>
       <c r="F16">
-        <v>1.012269640140994</v>
+        <v>1.045897423724792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046675399182525</v>
+        <v>1.037355989510533</v>
       </c>
       <c r="J16">
-        <v>1.018269453458349</v>
+        <v>1.033449028072594</v>
       </c>
       <c r="K16">
-        <v>1.039139769697248</v>
+        <v>1.036976620733987</v>
       </c>
       <c r="L16">
-        <v>1.020741187433476</v>
+        <v>1.040023431952615</v>
       </c>
       <c r="M16">
-        <v>1.026384803012804</v>
+        <v>1.049300030001033</v>
       </c>
       <c r="N16">
-        <v>1.010005787269546</v>
+        <v>1.015154056211292</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9913590542610247</v>
+        <v>1.027389117616848</v>
       </c>
       <c r="D17">
-        <v>1.026203247851504</v>
+        <v>1.033715284072692</v>
       </c>
       <c r="E17">
-        <v>1.007880272439559</v>
+        <v>1.036874496981962</v>
       </c>
       <c r="F17">
-        <v>1.013816770965129</v>
+        <v>1.046225951069465</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047157183468356</v>
+        <v>1.037423336772401</v>
       </c>
       <c r="J17">
-        <v>1.019153389485345</v>
+        <v>1.033629114401446</v>
       </c>
       <c r="K17">
-        <v>1.039766925264324</v>
+        <v>1.037089106053258</v>
       </c>
       <c r="L17">
-        <v>1.021751528456438</v>
+        <v>1.040237292490962</v>
       </c>
       <c r="M17">
-        <v>1.027586802836149</v>
+        <v>1.049556536870269</v>
       </c>
       <c r="N17">
-        <v>1.010301479485889</v>
+        <v>1.01521405468566</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9923084179388116</v>
+        <v>1.02757512900234</v>
       </c>
       <c r="D18">
-        <v>1.026757388448113</v>
+        <v>1.033823210827105</v>
       </c>
       <c r="E18">
-        <v>1.008666053498024</v>
+        <v>1.037041710933479</v>
       </c>
       <c r="F18">
-        <v>1.01471374761479</v>
+        <v>1.046417702705873</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04743513957512</v>
+        <v>1.037462479891318</v>
       </c>
       <c r="J18">
-        <v>1.019665186630885</v>
+        <v>1.03373414931658</v>
       </c>
       <c r="K18">
-        <v>1.040129703190262</v>
+        <v>1.037154648391049</v>
       </c>
       <c r="L18">
-        <v>1.022336857620113</v>
+        <v>1.040362066864725</v>
       </c>
       <c r="M18">
-        <v>1.028283245576638</v>
+        <v>1.049706203057275</v>
       </c>
       <c r="N18">
-        <v>1.01047268186511</v>
+        <v>1.01524904558806</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9926310163021362</v>
+        <v>1.027638566383956</v>
       </c>
       <c r="D19">
-        <v>1.026945752687115</v>
+        <v>1.033860014179533</v>
       </c>
       <c r="E19">
-        <v>1.008933201414956</v>
+        <v>1.037098745697386</v>
       </c>
       <c r="F19">
-        <v>1.015018682568412</v>
+        <v>1.046483106570525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047529400205779</v>
+        <v>1.03747580301164</v>
       </c>
       <c r="J19">
-        <v>1.019839060826509</v>
+        <v>1.033769962384594</v>
       </c>
       <c r="K19">
-        <v>1.040252891079952</v>
+        <v>1.037176984984729</v>
       </c>
       <c r="L19">
-        <v>1.022535771408117</v>
+        <v>1.04040461727747</v>
       </c>
       <c r="M19">
-        <v>1.02851993269541</v>
+        <v>1.049757243799329</v>
       </c>
       <c r="N19">
-        <v>1.010530844357074</v>
+        <v>1.015260975686618</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9911838956014496</v>
+        <v>1.027354908074692</v>
       </c>
       <c r="D20">
-        <v>1.026101039701674</v>
+        <v>1.033695433252303</v>
       </c>
       <c r="E20">
-        <v>1.007735359926109</v>
+        <v>1.036843748325867</v>
       </c>
       <c r="F20">
-        <v>1.013651343778429</v>
+        <v>1.046190690023403</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047105810071071</v>
+        <v>1.037416125460887</v>
       </c>
       <c r="J20">
-        <v>1.019058944995824</v>
+        <v>1.033609793494705</v>
       </c>
       <c r="K20">
-        <v>1.039699951944132</v>
+        <v>1.037077044513216</v>
       </c>
       <c r="L20">
-        <v>1.021643542527076</v>
+        <v>1.040214343840574</v>
       </c>
       <c r="M20">
-        <v>1.027458324177886</v>
+        <v>1.049529010919287</v>
       </c>
       <c r="N20">
-        <v>1.010269886410615</v>
+        <v>1.015207617950918</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9864001156368467</v>
+        <v>1.026433567606078</v>
       </c>
       <c r="D21">
-        <v>1.023313597003443</v>
+        <v>1.033160589452685</v>
       </c>
       <c r="E21">
-        <v>1.003785379044583</v>
+        <v>1.036016061008472</v>
       </c>
       <c r="F21">
-        <v>1.009141191938848</v>
+        <v>1.045241515128805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045692409889108</v>
+        <v>1.037220471583296</v>
       </c>
       <c r="J21">
-        <v>1.016477656244408</v>
+        <v>1.033088996705439</v>
       </c>
       <c r="K21">
-        <v>1.037866349784258</v>
+        <v>1.036751326885811</v>
       </c>
       <c r="L21">
-        <v>1.018695389397521</v>
+        <v>1.039596139361409</v>
       </c>
       <c r="M21">
-        <v>1.023951426764866</v>
+        <v>1.048787596147446</v>
       </c>
       <c r="N21">
-        <v>1.00940638652206</v>
+        <v>1.015034086811247</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9833291607989444</v>
+        <v>1.025854952327236</v>
       </c>
       <c r="D22">
-        <v>1.021528495189721</v>
+        <v>1.03282449435757</v>
       </c>
       <c r="E22">
-        <v>1.00125745277985</v>
+        <v>1.035496693414741</v>
       </c>
       <c r="F22">
-        <v>1.0062537506386</v>
+        <v>1.04464589121803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04477525509899</v>
+        <v>1.037096206511183</v>
       </c>
       <c r="J22">
-        <v>1.014818901698402</v>
+        <v>1.032761502365936</v>
       </c>
       <c r="K22">
-        <v>1.036685201554932</v>
+        <v>1.036545927724928</v>
       </c>
       <c r="L22">
-        <v>1.016804040375103</v>
+        <v>1.039207758485817</v>
       </c>
       <c r="M22">
-        <v>1.021702329237078</v>
+        <v>1.048321902258295</v>
       </c>
       <c r="N22">
-        <v>1.008851485420465</v>
+        <v>1.014924937317436</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9849632969193463</v>
+        <v>1.026161623344719</v>
       </c>
       <c r="D23">
-        <v>1.022477957405935</v>
+        <v>1.033002646776132</v>
       </c>
       <c r="E23">
-        <v>1.002601879997947</v>
+        <v>1.035771921514165</v>
       </c>
       <c r="F23">
-        <v>1.007789478356888</v>
+        <v>1.044961532081484</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045264203368427</v>
+        <v>1.037162199938217</v>
       </c>
       <c r="J23">
-        <v>1.015701715808359</v>
+        <v>1.032935117500372</v>
       </c>
       <c r="K23">
-        <v>1.037314081272948</v>
+        <v>1.036654870857275</v>
       </c>
       <c r="L23">
-        <v>1.017810347833373</v>
+        <v>1.03941361676676</v>
       </c>
       <c r="M23">
-        <v>1.022898913669184</v>
+        <v>1.048568730934474</v>
       </c>
       <c r="N23">
-        <v>1.009146812291514</v>
+        <v>1.014982803504924</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9912630627162807</v>
+        <v>1.027370365669351</v>
       </c>
       <c r="D24">
-        <v>1.026147233878562</v>
+        <v>1.033704402925931</v>
       </c>
       <c r="E24">
-        <v>1.007800854075341</v>
+        <v>1.036857641970741</v>
       </c>
       <c r="F24">
-        <v>1.013726109982274</v>
+        <v>1.046206622579577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047129032946367</v>
+        <v>1.037419384372984</v>
       </c>
       <c r="J24">
-        <v>1.019101632083528</v>
+        <v>1.033618523800719</v>
       </c>
       <c r="K24">
-        <v>1.039730223662387</v>
+        <v>1.037082494815636</v>
       </c>
       <c r="L24">
-        <v>1.021692349018588</v>
+        <v>1.040224713245663</v>
       </c>
       <c r="M24">
-        <v>1.02751639254251</v>
+        <v>1.049541448557206</v>
       </c>
       <c r="N24">
-        <v>1.010284165880177</v>
+        <v>1.015210526450385</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9983149941050456</v>
+        <v>1.028775895732426</v>
       </c>
       <c r="D25">
-        <v>1.030269634415869</v>
+        <v>1.034519479788303</v>
       </c>
       <c r="E25">
-        <v>1.013651629646566</v>
+        <v>1.038121990410661</v>
       </c>
       <c r="F25">
-        <v>1.020403112756285</v>
+        <v>1.047656462955322</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049173413854277</v>
+        <v>1.037712360993578</v>
       </c>
       <c r="J25">
-        <v>1.022899198789625</v>
+        <v>1.034411323287664</v>
       </c>
       <c r="K25">
-        <v>1.042415547235705</v>
+        <v>1.037576038828366</v>
       </c>
       <c r="L25">
-        <v>1.026041654554019</v>
+        <v>1.041167240174548</v>
       </c>
       <c r="M25">
-        <v>1.032692742948579</v>
+        <v>1.050672191081885</v>
       </c>
       <c r="N25">
-        <v>1.011554426941826</v>
+        <v>1.01547458086921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029899180750632</v>
+        <v>1.003747815344949</v>
       </c>
       <c r="D2">
-        <v>1.035170097181239</v>
+        <v>1.033454444999893</v>
       </c>
       <c r="E2">
-        <v>1.039133933876635</v>
+        <v>1.018182353629593</v>
       </c>
       <c r="F2">
-        <v>1.04881679467445</v>
+        <v>1.02557090033064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037941592842828</v>
+        <v>1.050711981856087</v>
       </c>
       <c r="J2">
-        <v>1.035043404736897</v>
+        <v>1.025817004835593</v>
       </c>
       <c r="K2">
-        <v>1.037967470451768</v>
+        <v>1.044466580087931</v>
       </c>
       <c r="L2">
-        <v>1.041919986588995</v>
+        <v>1.029394060308389</v>
       </c>
       <c r="M2">
-        <v>1.051575583816734</v>
+        <v>1.036685125631688</v>
       </c>
       <c r="N2">
-        <v>1.015685007260422</v>
+        <v>1.012530241650758</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03071605375388</v>
+        <v>1.007588949129282</v>
       </c>
       <c r="D3">
-        <v>1.035642765531242</v>
+        <v>1.035709870434925</v>
       </c>
       <c r="E3">
-        <v>1.039870692091212</v>
+        <v>1.02139842251864</v>
       </c>
       <c r="F3">
-        <v>1.049661549215666</v>
+        <v>1.02923776811594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038105440698532</v>
+        <v>1.051777783248158</v>
       </c>
       <c r="J3">
-        <v>1.035502182042361</v>
+        <v>1.027874848153512</v>
       </c>
       <c r="K3">
-        <v>1.038250374178817</v>
+        <v>1.04590534915984</v>
       </c>
       <c r="L3">
-        <v>1.042467094668118</v>
+        <v>1.031764636163132</v>
       </c>
       <c r="M3">
-        <v>1.052232375384859</v>
+        <v>1.039509729687989</v>
       </c>
       <c r="N3">
-        <v>1.015837681183171</v>
+        <v>1.013218316774524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031245202407314</v>
+        <v>1.010028842180825</v>
       </c>
       <c r="D4">
-        <v>1.03594872305099</v>
+        <v>1.03714376574499</v>
       </c>
       <c r="E4">
-        <v>1.040348337013234</v>
+        <v>1.023446946366395</v>
       </c>
       <c r="F4">
-        <v>1.050209191501308</v>
+        <v>1.031572838707079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038210255010776</v>
+        <v>1.05244429788314</v>
       </c>
       <c r="J4">
-        <v>1.035798955398388</v>
+        <v>1.029179442262484</v>
       </c>
       <c r="K4">
-        <v>1.038432817429971</v>
+        <v>1.046813650188535</v>
       </c>
       <c r="L4">
-        <v>1.042821354721283</v>
+        <v>1.033270389485468</v>
       </c>
       <c r="M4">
-        <v>1.052657745837523</v>
+        <v>1.041304574725746</v>
       </c>
       <c r="N4">
-        <v>1.015936415760608</v>
+        <v>1.013654453316244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031467792995269</v>
+        <v>1.011043992316796</v>
       </c>
       <c r="D5">
-        <v>1.036077371878461</v>
+        <v>1.037740589615525</v>
       </c>
       <c r="E5">
-        <v>1.04054935565645</v>
+        <v>1.024300591641135</v>
       </c>
       <c r="F5">
-        <v>1.050439664799052</v>
+        <v>1.032545756681325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038254029283011</v>
+        <v>1.052719050573881</v>
       </c>
       <c r="J5">
-        <v>1.035923696993636</v>
+        <v>1.02972159745759</v>
       </c>
       <c r="K5">
-        <v>1.038509368190206</v>
+        <v>1.047190164773986</v>
       </c>
       <c r="L5">
-        <v>1.042970342723245</v>
+        <v>1.033896840126508</v>
       </c>
       <c r="M5">
-        <v>1.052836661415446</v>
+        <v>1.042051468560154</v>
       </c>
       <c r="N5">
-        <v>1.015977909991341</v>
+        <v>1.013835679932652</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031505174889467</v>
+        <v>1.011213829367955</v>
       </c>
       <c r="D6">
-        <v>1.036098973950678</v>
+        <v>1.037840451444634</v>
       </c>
       <c r="E6">
-        <v>1.040583120224976</v>
+        <v>1.024443485791831</v>
       </c>
       <c r="F6">
-        <v>1.050478376557894</v>
+        <v>1.032708608543343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038261362163791</v>
+        <v>1.052764865631966</v>
       </c>
       <c r="J6">
-        <v>1.035944640333582</v>
+        <v>1.029812263017892</v>
       </c>
       <c r="K6">
-        <v>1.038522212660613</v>
+        <v>1.047253073036574</v>
       </c>
       <c r="L6">
-        <v>1.042995361768583</v>
+        <v>1.034001643755825</v>
       </c>
       <c r="M6">
-        <v>1.052866707346886</v>
+        <v>1.042176432092657</v>
       </c>
       <c r="N6">
-        <v>1.015984876233466</v>
+        <v>1.013865985526342</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031248176139428</v>
+        <v>1.010042447814212</v>
       </c>
       <c r="D7">
-        <v>1.035950441969927</v>
+        <v>1.037151763894398</v>
       </c>
       <c r="E7">
-        <v>1.040351022184991</v>
+        <v>1.023458382208665</v>
       </c>
       <c r="F7">
-        <v>1.050212270138675</v>
+        <v>1.031585872905276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03821084106405</v>
+        <v>1.052447990443485</v>
       </c>
       <c r="J7">
-        <v>1.035800622289438</v>
+        <v>1.029186711098644</v>
       </c>
       <c r="K7">
-        <v>1.038433840889656</v>
+        <v>1.046818702035783</v>
       </c>
       <c r="L7">
-        <v>1.042823345283834</v>
+        <v>1.033278785729858</v>
       </c>
       <c r="M7">
-        <v>1.052660136165365</v>
+        <v>1.041314584581839</v>
       </c>
       <c r="N7">
-        <v>1.015936970263297</v>
+        <v>1.013656883158253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030175126278562</v>
+        <v>1.005055585073399</v>
       </c>
       <c r="D8">
-        <v>1.035329813836348</v>
+        <v>1.034222035310853</v>
       </c>
       <c r="E8">
-        <v>1.039382734574588</v>
+        <v>1.01927610343948</v>
       </c>
       <c r="F8">
-        <v>1.049102069030974</v>
+        <v>1.026818091636209</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03799721520714</v>
+        <v>1.051077017528112</v>
       </c>
       <c r="J8">
-        <v>1.035198467763302</v>
+        <v>1.026518145110325</v>
       </c>
       <c r="K8">
-        <v>1.038063205521666</v>
+        <v>1.044957572622952</v>
       </c>
       <c r="L8">
-        <v>1.042104832809476</v>
+        <v>1.030201147778123</v>
       </c>
       <c r="M8">
-        <v>1.051797469400993</v>
+        <v>1.037646646453847</v>
       </c>
       <c r="N8">
-        <v>1.015736615375359</v>
+        <v>1.012764694849839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028288770659261</v>
+        <v>0.9959034539234113</v>
       </c>
       <c r="D9">
-        <v>1.034237111286104</v>
+        <v>1.02885829331706</v>
       </c>
       <c r="E9">
-        <v>1.03768356427295</v>
+        <v>1.01164707591589</v>
       </c>
       <c r="F9">
-        <v>1.047153727281261</v>
+        <v>1.018115940022357</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037611580650261</v>
+        <v>1.048479911313552</v>
       </c>
       <c r="J9">
-        <v>1.034136790546875</v>
+        <v>1.021601705784831</v>
       </c>
       <c r="K9">
-        <v>1.03740545057805</v>
+        <v>1.041499894494947</v>
       </c>
       <c r="L9">
-        <v>1.0408406598107</v>
+        <v>1.024553972069787</v>
       </c>
       <c r="M9">
-        <v>1.050280344366199</v>
+        <v>1.030921780695999</v>
       </c>
       <c r="N9">
-        <v>1.015383158522442</v>
+        <v>1.011120445908163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027034323168298</v>
+        <v>0.9895339347993998</v>
       </c>
       <c r="D10">
-        <v>1.033509378643423</v>
+        <v>1.025138750567243</v>
       </c>
       <c r="E10">
-        <v>1.036555653709336</v>
+        <v>1.006371300236818</v>
       </c>
       <c r="F10">
-        <v>1.045860314231421</v>
+        <v>1.01209405463996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037348359780937</v>
+        <v>1.046620535797467</v>
       </c>
       <c r="J10">
-        <v>1.033428675749359</v>
+        <v>1.018169042198742</v>
       </c>
       <c r="K10">
-        <v>1.036963899579962</v>
+        <v>1.03906848171411</v>
       </c>
       <c r="L10">
-        <v>1.039999268172545</v>
+        <v>1.020626463926332</v>
       </c>
       <c r="M10">
-        <v>1.049271049071549</v>
+        <v>1.026248327404121</v>
       </c>
       <c r="N10">
-        <v>1.015147275114556</v>
+        <v>1.00997219759952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026491895408498</v>
+        <v>0.986706800840749</v>
       </c>
       <c r="D11">
-        <v>1.033194461197344</v>
+        <v>1.023492059451482</v>
       </c>
       <c r="E11">
-        <v>1.036068434671992</v>
+        <v>1.004038165266321</v>
       </c>
       <c r="F11">
-        <v>1.045301577547074</v>
+        <v>1.00942988488331</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037232939254775</v>
+        <v>1.045783597124072</v>
       </c>
       <c r="J11">
-        <v>1.033121991998951</v>
+        <v>1.016643243086811</v>
       </c>
       <c r="K11">
-        <v>1.036771996607531</v>
+        <v>1.037984143824703</v>
       </c>
       <c r="L11">
-        <v>1.039635284547152</v>
+        <v>1.018884327401205</v>
       </c>
       <c r="M11">
-        <v>1.048834537689519</v>
+        <v>1.024176131829869</v>
       </c>
       <c r="N11">
-        <v>1.015045082547776</v>
+        <v>1.009461779915596</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026290528905962</v>
+        <v>0.9856457998584285</v>
       </c>
       <c r="D12">
-        <v>1.033077518199142</v>
+        <v>1.022874799948014</v>
       </c>
       <c r="E12">
-        <v>1.035887638082301</v>
+        <v>1.003163888816339</v>
       </c>
       <c r="F12">
-        <v>1.045094238187076</v>
+        <v>1.008431389078933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037189850855352</v>
+        <v>1.045467808244694</v>
       </c>
       <c r="J12">
-        <v>1.033008067466675</v>
+        <v>1.016070328742171</v>
       </c>
       <c r="K12">
-        <v>1.036700610175948</v>
+        <v>1.03757649590891</v>
       </c>
       <c r="L12">
-        <v>1.039500138070927</v>
+        <v>1.018230723704507</v>
       </c>
       <c r="M12">
-        <v>1.048672477804274</v>
+        <v>1.023398820256731</v>
       </c>
       <c r="N12">
-        <v>1.015007116106457</v>
+        <v>1.00927012394109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026333717458626</v>
+        <v>0.9858738887193106</v>
       </c>
       <c r="D13">
-        <v>1.033102601418318</v>
+        <v>1.02300746085837</v>
       </c>
       <c r="E13">
-        <v>1.035926411467305</v>
+        <v>1.003351775614599</v>
       </c>
       <c r="F13">
-        <v>1.045138704085684</v>
+        <v>1.008645979321631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037199103226935</v>
+        <v>1.045535770548357</v>
       </c>
       <c r="J13">
-        <v>1.033032505030994</v>
+        <v>1.016193503787424</v>
       </c>
       <c r="K13">
-        <v>1.036715927543783</v>
+        <v>1.0376641607953</v>
       </c>
       <c r="L13">
-        <v>1.039529125015315</v>
+        <v>1.018371222270624</v>
       </c>
       <c r="M13">
-        <v>1.048707236557346</v>
+        <v>1.023565905587657</v>
       </c>
       <c r="N13">
-        <v>1.015015260372184</v>
+        <v>1.009311329509688</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02647524802829</v>
+        <v>0.9866193230486533</v>
       </c>
       <c r="D14">
-        <v>1.033184794001429</v>
+        <v>1.023441152009649</v>
       </c>
       <c r="E14">
-        <v>1.036053486322049</v>
+        <v>1.003966055263597</v>
       </c>
       <c r="F14">
-        <v>1.045284434712518</v>
+        <v>1.00934753290839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03722938195699</v>
+        <v>1.045757594925122</v>
       </c>
       <c r="J14">
-        <v>1.033112575128179</v>
+        <v>1.016596013002867</v>
       </c>
       <c r="K14">
-        <v>1.036766097919702</v>
+        <v>1.037950547843639</v>
       </c>
       <c r="L14">
-        <v>1.039624112202397</v>
+        <v>1.01883043441111</v>
       </c>
       <c r="M14">
-        <v>1.048821140129354</v>
+        <v>1.024112036026729</v>
       </c>
       <c r="N14">
-        <v>1.015041944381669</v>
+        <v>1.009445980148467</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026562465015027</v>
+        <v>0.9870771529793007</v>
       </c>
       <c r="D15">
-        <v>1.033235439779495</v>
+        <v>1.023707615142981</v>
       </c>
       <c r="E15">
-        <v>1.036131805011917</v>
+        <v>1.004343509809342</v>
       </c>
       <c r="F15">
-        <v>1.04537425076744</v>
+        <v>1.009778591164572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037248009076249</v>
+        <v>1.045893613187354</v>
       </c>
       <c r="J15">
-        <v>1.03316190786563</v>
+        <v>1.016843187923015</v>
       </c>
       <c r="K15">
-        <v>1.036796995653639</v>
+        <v>1.038126349817621</v>
       </c>
       <c r="L15">
-        <v>1.039682644043848</v>
+        <v>1.019112501219853</v>
       </c>
       <c r="M15">
-        <v>1.048891330515731</v>
+        <v>1.024447507583741</v>
       </c>
       <c r="N15">
-        <v>1.015058384291148</v>
+        <v>1.009528666920022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027070338391006</v>
+        <v>0.9897200649187424</v>
       </c>
       <c r="D16">
-        <v>1.03353028296703</v>
+        <v>1.025247260134005</v>
       </c>
       <c r="E16">
-        <v>1.036588013724436</v>
+        <v>1.006525089038963</v>
       </c>
       <c r="F16">
-        <v>1.045897423724792</v>
+        <v>1.012269640140993</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037355989510533</v>
+        <v>1.046675399182524</v>
       </c>
       <c r="J16">
-        <v>1.033449028072594</v>
+        <v>1.018269453458348</v>
       </c>
       <c r="K16">
-        <v>1.036976620733987</v>
+        <v>1.039139769697247</v>
       </c>
       <c r="L16">
-        <v>1.040023431952615</v>
+        <v>1.020741187433475</v>
       </c>
       <c r="M16">
-        <v>1.049300030001033</v>
+        <v>1.026384803012804</v>
       </c>
       <c r="N16">
-        <v>1.015154056211292</v>
+        <v>1.010005787269546</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027389117616848</v>
+        <v>0.9913590542610236</v>
       </c>
       <c r="D17">
-        <v>1.033715284072692</v>
+        <v>1.026203247851504</v>
       </c>
       <c r="E17">
-        <v>1.036874496981962</v>
+        <v>1.007880272439557</v>
       </c>
       <c r="F17">
-        <v>1.046225951069465</v>
+        <v>1.013816770965128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037423336772401</v>
+        <v>1.047157183468355</v>
       </c>
       <c r="J17">
-        <v>1.033629114401446</v>
+        <v>1.019153389485344</v>
       </c>
       <c r="K17">
-        <v>1.037089106053258</v>
+        <v>1.039766925264324</v>
       </c>
       <c r="L17">
-        <v>1.040237292490962</v>
+        <v>1.021751528456437</v>
       </c>
       <c r="M17">
-        <v>1.049556536870269</v>
+        <v>1.027586802836148</v>
       </c>
       <c r="N17">
-        <v>1.01521405468566</v>
+        <v>1.010301479485889</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02757512900234</v>
+        <v>0.9923084179388113</v>
       </c>
       <c r="D18">
-        <v>1.033823210827105</v>
+        <v>1.026757388448113</v>
       </c>
       <c r="E18">
-        <v>1.037041710933479</v>
+        <v>1.008666053498023</v>
       </c>
       <c r="F18">
-        <v>1.046417702705873</v>
+        <v>1.01471374761479</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037462479891318</v>
+        <v>1.04743513957512</v>
       </c>
       <c r="J18">
-        <v>1.03373414931658</v>
+        <v>1.019665186630885</v>
       </c>
       <c r="K18">
-        <v>1.037154648391049</v>
+        <v>1.040129703190262</v>
       </c>
       <c r="L18">
-        <v>1.040362066864725</v>
+        <v>1.022336857620113</v>
       </c>
       <c r="M18">
-        <v>1.049706203057275</v>
+        <v>1.028283245576637</v>
       </c>
       <c r="N18">
-        <v>1.01524904558806</v>
+        <v>1.01047268186511</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027638566383956</v>
+        <v>0.9926310163021359</v>
       </c>
       <c r="D19">
-        <v>1.033860014179533</v>
+        <v>1.026945752687114</v>
       </c>
       <c r="E19">
-        <v>1.037098745697386</v>
+        <v>1.008933201414956</v>
       </c>
       <c r="F19">
-        <v>1.046483106570525</v>
+        <v>1.015018682568412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03747580301164</v>
+        <v>1.047529400205779</v>
       </c>
       <c r="J19">
-        <v>1.033769962384594</v>
+        <v>1.019839060826509</v>
       </c>
       <c r="K19">
-        <v>1.037176984984729</v>
+        <v>1.040252891079952</v>
       </c>
       <c r="L19">
-        <v>1.04040461727747</v>
+        <v>1.022535771408117</v>
       </c>
       <c r="M19">
-        <v>1.049757243799329</v>
+        <v>1.02851993269541</v>
       </c>
       <c r="N19">
-        <v>1.015260975686618</v>
+        <v>1.010530844357074</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027354908074692</v>
+        <v>0.9911838956014485</v>
       </c>
       <c r="D20">
-        <v>1.033695433252303</v>
+        <v>1.026101039701674</v>
       </c>
       <c r="E20">
-        <v>1.036843748325867</v>
+        <v>1.007735359926107</v>
       </c>
       <c r="F20">
-        <v>1.046190690023403</v>
+        <v>1.013651343778428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037416125460887</v>
+        <v>1.04710581007107</v>
       </c>
       <c r="J20">
-        <v>1.033609793494705</v>
+        <v>1.019058944995823</v>
       </c>
       <c r="K20">
-        <v>1.037077044513216</v>
+        <v>1.039699951944132</v>
       </c>
       <c r="L20">
-        <v>1.040214343840574</v>
+        <v>1.021643542527075</v>
       </c>
       <c r="M20">
-        <v>1.049529010919287</v>
+        <v>1.027458324177884</v>
       </c>
       <c r="N20">
-        <v>1.015207617950918</v>
+        <v>1.010269886410615</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026433567606078</v>
+        <v>0.9864001156368463</v>
       </c>
       <c r="D21">
-        <v>1.033160589452685</v>
+        <v>1.023313597003442</v>
       </c>
       <c r="E21">
-        <v>1.036016061008472</v>
+        <v>1.003785379044583</v>
       </c>
       <c r="F21">
-        <v>1.045241515128805</v>
+        <v>1.009141191938848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037220471583296</v>
+        <v>1.045692409889108</v>
       </c>
       <c r="J21">
-        <v>1.033088996705439</v>
+        <v>1.016477656244407</v>
       </c>
       <c r="K21">
-        <v>1.036751326885811</v>
+        <v>1.037866349784258</v>
       </c>
       <c r="L21">
-        <v>1.039596139361409</v>
+        <v>1.01869538939752</v>
       </c>
       <c r="M21">
-        <v>1.048787596147446</v>
+        <v>1.023951426764865</v>
       </c>
       <c r="N21">
-        <v>1.015034086811247</v>
+        <v>1.00940638652206</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025854952327236</v>
+        <v>0.9833291607989436</v>
       </c>
       <c r="D22">
-        <v>1.03282449435757</v>
+        <v>1.021528495189721</v>
       </c>
       <c r="E22">
-        <v>1.035496693414741</v>
+        <v>1.001257452779849</v>
       </c>
       <c r="F22">
-        <v>1.04464589121803</v>
+        <v>1.0062537506386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037096206511183</v>
+        <v>1.04477525509899</v>
       </c>
       <c r="J22">
-        <v>1.032761502365936</v>
+        <v>1.014818901698401</v>
       </c>
       <c r="K22">
-        <v>1.036545927724928</v>
+        <v>1.036685201554932</v>
       </c>
       <c r="L22">
-        <v>1.039207758485817</v>
+        <v>1.016804040375102</v>
       </c>
       <c r="M22">
-        <v>1.048321902258295</v>
+        <v>1.021702329237078</v>
       </c>
       <c r="N22">
-        <v>1.014924937317436</v>
+        <v>1.008851485420465</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026161623344719</v>
+        <v>0.9849632969193449</v>
       </c>
       <c r="D23">
-        <v>1.033002646776132</v>
+        <v>1.022477957405934</v>
       </c>
       <c r="E23">
-        <v>1.035771921514165</v>
+        <v>1.002601879997946</v>
       </c>
       <c r="F23">
-        <v>1.044961532081484</v>
+        <v>1.007789478356887</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037162199938217</v>
+        <v>1.045264203368426</v>
       </c>
       <c r="J23">
-        <v>1.032935117500372</v>
+        <v>1.015701715808357</v>
       </c>
       <c r="K23">
-        <v>1.036654870857275</v>
+        <v>1.037314081272947</v>
       </c>
       <c r="L23">
-        <v>1.03941361676676</v>
+        <v>1.017810347833371</v>
       </c>
       <c r="M23">
-        <v>1.048568730934474</v>
+        <v>1.022898913669182</v>
       </c>
       <c r="N23">
-        <v>1.014982803504924</v>
+        <v>1.009146812291514</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027370365669351</v>
+        <v>0.9912630627162805</v>
       </c>
       <c r="D24">
-        <v>1.033704402925931</v>
+        <v>1.026147233878562</v>
       </c>
       <c r="E24">
-        <v>1.036857641970741</v>
+        <v>1.00780085407534</v>
       </c>
       <c r="F24">
-        <v>1.046206622579577</v>
+        <v>1.013726109982273</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037419384372984</v>
+        <v>1.047129032946367</v>
       </c>
       <c r="J24">
-        <v>1.033618523800719</v>
+        <v>1.019101632083528</v>
       </c>
       <c r="K24">
-        <v>1.037082494815636</v>
+        <v>1.039730223662387</v>
       </c>
       <c r="L24">
-        <v>1.040224713245663</v>
+        <v>1.021692349018588</v>
       </c>
       <c r="M24">
-        <v>1.049541448557206</v>
+        <v>1.02751639254251</v>
       </c>
       <c r="N24">
-        <v>1.015210526450385</v>
+        <v>1.010284165880177</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028775895732426</v>
+        <v>0.9983149941050447</v>
       </c>
       <c r="D25">
-        <v>1.034519479788303</v>
+        <v>1.030269634415868</v>
       </c>
       <c r="E25">
-        <v>1.038121990410661</v>
+        <v>1.013651629646565</v>
       </c>
       <c r="F25">
-        <v>1.047656462955322</v>
+        <v>1.020403112756283</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037712360993578</v>
+        <v>1.049173413854277</v>
       </c>
       <c r="J25">
-        <v>1.034411323287664</v>
+        <v>1.022899198789624</v>
       </c>
       <c r="K25">
-        <v>1.037576038828366</v>
+        <v>1.042415547235704</v>
       </c>
       <c r="L25">
-        <v>1.041167240174548</v>
+        <v>1.026041654554018</v>
       </c>
       <c r="M25">
-        <v>1.050672191081885</v>
+        <v>1.032692742948577</v>
       </c>
       <c r="N25">
-        <v>1.01547458086921</v>
+        <v>1.011554426941826</v>
       </c>
     </row>
   </sheetData>
